--- a/itech-aurum/forms/app/day7_sms.xlsx
+++ b/itech-aurum/forms/app/day7_sms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -153,6 +153,12 @@
     <t xml:space="preserve">../inputs/contact/_id</t>
   </si>
   <si>
+    <t xml:space="preserve">patient_sms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_one response</t>
   </si>
   <si>
@@ -162,33 +168,18 @@
     <t xml:space="preserve">Did the patient respond via SMS?</t>
   </si>
   <si>
-    <t xml:space="preserve">select_multiple symptom</t>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_name</t>
   </si>
   <si>
     <t xml:space="preserve">symptom</t>
   </si>
   <si>
-    <t xml:space="preserve">What was their primary symptom? select all that apply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${response} = 'yes_ae'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_symptom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${symptom} = 'other'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
     <t xml:space="preserve">bleeding</t>
   </si>
   <si>
@@ -231,22 +222,13 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">yes_no_ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, but no Adverse Event reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, Adverse Event reported</t>
+    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">No. Referred for patient tracing</t>
+    <t xml:space="preserve">No, Referred for tracing</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -298,7 +280,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -464,7 +446,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,6 +499,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -543,12 +529,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -614,28 +600,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8 B13 K13"/>
+      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.3925925925926"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.237037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.31111111111111"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.4666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.0037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4666666666667"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,89 +896,79 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1003,29 +977,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="3" sqref="B8 B13 K13 B3"/>
+      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.4666666666667"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1036,79 +1008,79 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,41 +1090,31 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1161,121 +1123,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="B8 B13 K13 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="15" min="5" style="0" width="11.4666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.4666666666667"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="8.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="C2" s="19" t="n">
+        <v>43008</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="18" t="n">
-        <v>43008</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
